--- a/VersionRecords/Version 5.0.2.2/版本Bug和特性计划及评审表v5.0.2.2_EQ组.xlsx
+++ b/VersionRecords/Version 5.0.2.2/版本Bug和特性计划及评审表v5.0.2.2_EQ组.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataStar\DataCode\GitDoc\Mogo_Doc\VersionRecords\Version 5.0.2.2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760"/>
   </bookViews>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="63">
   <si>
     <t>No</t>
   </si>
@@ -252,12 +247,24 @@
     <t>李健</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>吴永余</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1011,17 +1018,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
+      <selection pane="bottomRight" activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="14" customWidth="1"/>
     <col min="2" max="2" width="42.125" style="15" customWidth="1"/>
@@ -1046,7 +1053,7 @@
     <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="27.75" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1105,7 +1112,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="9" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" s="9" customFormat="1" ht="32.25" customHeight="1">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -1137,17 +1144,25 @@
       <c r="K2" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="12"/>
+      <c r="L2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="11">
+        <v>42639</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="37"/>
       <c r="S2" s="13"/>
       <c r="T2" s="8"/>
     </row>
-    <row r="3" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" ht="16.5">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -1179,16 +1194,24 @@
       <c r="K3" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="12"/>
+      <c r="L3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" s="11">
+        <v>42639</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" ht="16.5">
       <c r="A4" s="7"/>
       <c r="B4" s="4"/>
       <c r="C4" s="7"/>
@@ -1209,7 +1232,7 @@
       <c r="R4" s="7"/>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" ht="16.5">
       <c r="A5" s="7"/>
       <c r="B5" s="4"/>
       <c r="C5" s="7"/>
@@ -1230,7 +1253,7 @@
       <c r="R5" s="7"/>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" ht="16.5">
       <c r="A6" s="7"/>
       <c r="B6" s="4"/>
       <c r="C6" s="7"/>
@@ -1251,7 +1274,7 @@
       <c r="R6" s="7"/>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" ht="16.5">
       <c r="A7" s="7"/>
       <c r="B7" s="4"/>
       <c r="C7" s="7"/>
@@ -1272,7 +1295,7 @@
       <c r="R7" s="7"/>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" ht="16.5">
       <c r="A8" s="7"/>
       <c r="B8" s="4"/>
       <c r="C8" s="7"/>
@@ -1293,7 +1316,7 @@
       <c r="R8" s="7"/>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" ht="16.5">
       <c r="A9" s="7"/>
       <c r="B9" s="4"/>
       <c r="C9" s="7"/>
@@ -1314,7 +1337,7 @@
       <c r="R9" s="7"/>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" ht="16.5">
       <c r="A10" s="7"/>
       <c r="B10" s="4"/>
       <c r="C10" s="7"/>
@@ -1335,7 +1358,7 @@
       <c r="R10" s="7"/>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" ht="16.5">
       <c r="A11" s="7"/>
       <c r="B11" s="4"/>
       <c r="C11" s="7"/>
@@ -1356,7 +1379,7 @@
       <c r="R11" s="7"/>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" ht="16.5">
       <c r="A12" s="7"/>
       <c r="B12" s="4"/>
       <c r="C12" s="7"/>
@@ -1377,7 +1400,7 @@
       <c r="R12" s="7"/>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20" ht="16.5">
       <c r="A13" s="7"/>
       <c r="B13" s="4"/>
       <c r="C13" s="7"/>
@@ -1398,7 +1421,7 @@
       <c r="R13" s="7"/>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" ht="16.5">
       <c r="A14" s="7"/>
       <c r="B14" s="4"/>
       <c r="C14" s="7"/>
@@ -1419,7 +1442,7 @@
       <c r="R14" s="7"/>
       <c r="S14" s="4"/>
     </row>
-    <row r="15" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" ht="16.5">
       <c r="A15" s="7"/>
       <c r="B15" s="4"/>
       <c r="C15" s="7"/>
@@ -1440,7 +1463,7 @@
       <c r="R15" s="7"/>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" ht="16.5">
       <c r="A16" s="7"/>
       <c r="B16" s="4"/>
       <c r="C16" s="7"/>
@@ -1461,7 +1484,7 @@
       <c r="R16" s="7"/>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:19" ht="16.5">
       <c r="A17" s="7"/>
       <c r="B17" s="4"/>
       <c r="C17" s="7"/>
@@ -1482,7 +1505,7 @@
       <c r="R17" s="7"/>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:19" ht="16.5">
       <c r="A18" s="7"/>
       <c r="B18" s="4"/>
       <c r="C18" s="7"/>
@@ -1503,7 +1526,7 @@
       <c r="R18" s="7"/>
       <c r="S18" s="4"/>
     </row>
-    <row r="19" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:19" ht="16.5">
       <c r="A19" s="7"/>
       <c r="B19" s="4"/>
       <c r="C19" s="7"/>
@@ -1524,7 +1547,7 @@
       <c r="R19" s="7"/>
       <c r="S19" s="4"/>
     </row>
-    <row r="20" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:19" ht="16.5">
       <c r="A20" s="7"/>
       <c r="B20" s="4"/>
       <c r="C20" s="7"/>
@@ -1545,7 +1568,7 @@
       <c r="R20" s="7"/>
       <c r="S20" s="4"/>
     </row>
-    <row r="21" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:19" ht="16.5">
       <c r="A21" s="7"/>
       <c r="B21" s="4"/>
       <c r="C21" s="7"/>
@@ -1566,7 +1589,7 @@
       <c r="R21" s="7"/>
       <c r="S21" s="4"/>
     </row>
-    <row r="22" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:19" ht="16.5">
       <c r="A22" s="7"/>
       <c r="B22" s="4"/>
       <c r="C22" s="7"/>
@@ -1587,7 +1610,7 @@
       <c r="R22" s="7"/>
       <c r="S22" s="4"/>
     </row>
-    <row r="23" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:19" ht="16.5">
       <c r="A23" s="7"/>
       <c r="B23" s="4"/>
       <c r="C23" s="7"/>
@@ -1608,7 +1631,7 @@
       <c r="R23" s="7"/>
       <c r="S23" s="4"/>
     </row>
-    <row r="24" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:19" ht="16.5">
       <c r="A24" s="7"/>
       <c r="B24" s="4"/>
       <c r="C24" s="7"/>
@@ -1629,7 +1652,7 @@
       <c r="R24" s="7"/>
       <c r="S24" s="4"/>
     </row>
-    <row r="25" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:19" ht="16.5">
       <c r="A25" s="7"/>
       <c r="B25" s="4"/>
       <c r="C25" s="7"/>
@@ -1650,7 +1673,7 @@
       <c r="R25" s="7"/>
       <c r="S25" s="4"/>
     </row>
-    <row r="26" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:19" ht="16.5">
       <c r="A26" s="7"/>
       <c r="B26" s="4"/>
       <c r="C26" s="7"/>
@@ -1671,7 +1694,7 @@
       <c r="R26" s="7"/>
       <c r="S26" s="4"/>
     </row>
-    <row r="27" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:19" ht="16.5">
       <c r="A27" s="7"/>
       <c r="B27" s="4"/>
       <c r="C27" s="7"/>
@@ -1692,7 +1715,7 @@
       <c r="R27" s="7"/>
       <c r="S27" s="4"/>
     </row>
-    <row r="28" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:19" ht="16.5">
       <c r="A28" s="7"/>
       <c r="B28" s="4"/>
       <c r="C28" s="7"/>
@@ -1713,7 +1736,7 @@
       <c r="R28" s="7"/>
       <c r="S28" s="4"/>
     </row>
-    <row r="29" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:19" ht="16.5">
       <c r="A29" s="7"/>
       <c r="B29" s="4"/>
       <c r="C29" s="7"/>
@@ -1734,7 +1757,7 @@
       <c r="R29" s="7"/>
       <c r="S29" s="4"/>
     </row>
-    <row r="30" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:19" ht="16.5">
       <c r="A30" s="7"/>
       <c r="B30" s="4"/>
       <c r="C30" s="7"/>
@@ -1755,7 +1778,7 @@
       <c r="R30" s="7"/>
       <c r="S30" s="4"/>
     </row>
-    <row r="31" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:19" ht="16.5">
       <c r="A31" s="7"/>
       <c r="B31" s="4"/>
       <c r="C31" s="7"/>
@@ -1776,7 +1799,7 @@
       <c r="R31" s="7"/>
       <c r="S31" s="4"/>
     </row>
-    <row r="32" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:19" ht="16.5">
       <c r="A32" s="7"/>
       <c r="B32" s="4"/>
       <c r="C32" s="7"/>
@@ -1797,7 +1820,7 @@
       <c r="R32" s="7"/>
       <c r="S32" s="4"/>
     </row>
-    <row r="33" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:19" ht="16.5">
       <c r="A33" s="7"/>
       <c r="B33" s="4"/>
       <c r="C33" s="7"/>
@@ -1818,7 +1841,7 @@
       <c r="R33" s="7"/>
       <c r="S33" s="4"/>
     </row>
-    <row r="34" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:19" ht="16.5">
       <c r="A34" s="7"/>
       <c r="B34" s="4"/>
       <c r="C34" s="7"/>
@@ -1839,7 +1862,7 @@
       <c r="R34" s="7"/>
       <c r="S34" s="4"/>
     </row>
-    <row r="35" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:19" ht="16.5">
       <c r="A35" s="7"/>
       <c r="B35" s="4"/>
       <c r="C35" s="7"/>
@@ -1860,7 +1883,7 @@
       <c r="R35" s="7"/>
       <c r="S35" s="4"/>
     </row>
-    <row r="36" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:19" ht="16.5">
       <c r="A36" s="7"/>
       <c r="B36" s="4"/>
       <c r="C36" s="7"/>
@@ -1881,7 +1904,7 @@
       <c r="R36" s="7"/>
       <c r="S36" s="4"/>
     </row>
-    <row r="37" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:19" ht="16.5">
       <c r="A37" s="7"/>
       <c r="B37" s="4"/>
       <c r="C37" s="7"/>
@@ -1902,7 +1925,7 @@
       <c r="R37" s="7"/>
       <c r="S37" s="4"/>
     </row>
-    <row r="38" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:19" ht="16.5">
       <c r="A38" s="7"/>
       <c r="B38" s="4"/>
       <c r="C38" s="7"/>
@@ -1923,7 +1946,7 @@
       <c r="R38" s="7"/>
       <c r="S38" s="4"/>
     </row>
-    <row r="39" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:19" ht="16.5">
       <c r="A39" s="7"/>
       <c r="B39" s="4"/>
       <c r="C39" s="7"/>
@@ -1944,7 +1967,7 @@
       <c r="R39" s="7"/>
       <c r="S39" s="4"/>
     </row>
-    <row r="40" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:19" ht="16.5">
       <c r="A40" s="7"/>
       <c r="B40" s="4"/>
       <c r="C40" s="7"/>
@@ -1965,7 +1988,7 @@
       <c r="R40" s="7"/>
       <c r="S40" s="4"/>
     </row>
-    <row r="41" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:19" ht="16.5">
       <c r="A41" s="7"/>
       <c r="B41" s="4"/>
       <c r="C41" s="7"/>
@@ -1986,7 +2009,7 @@
       <c r="R41" s="7"/>
       <c r="S41" s="4"/>
     </row>
-    <row r="42" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:19" ht="16.5">
       <c r="A42" s="7"/>
       <c r="B42" s="4"/>
       <c r="C42" s="7"/>
@@ -2007,7 +2030,7 @@
       <c r="R42" s="7"/>
       <c r="S42" s="4"/>
     </row>
-    <row r="43" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:19" ht="16.5">
       <c r="A43" s="7"/>
       <c r="B43" s="4"/>
       <c r="C43" s="7"/>
@@ -2028,7 +2051,7 @@
       <c r="R43" s="7"/>
       <c r="S43" s="4"/>
     </row>
-    <row r="44" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:19" ht="16.5">
       <c r="A44" s="7"/>
       <c r="B44" s="4"/>
       <c r="C44" s="7"/>
@@ -2049,7 +2072,7 @@
       <c r="R44" s="7"/>
       <c r="S44" s="4"/>
     </row>
-    <row r="45" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:19" ht="16.5">
       <c r="A45" s="7"/>
       <c r="B45" s="4"/>
       <c r="C45" s="7"/>
@@ -2070,7 +2093,7 @@
       <c r="R45" s="7"/>
       <c r="S45" s="4"/>
     </row>
-    <row r="46" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:19" ht="16.5">
       <c r="A46" s="7"/>
       <c r="B46" s="4"/>
       <c r="C46" s="7"/>
@@ -2091,7 +2114,7 @@
       <c r="R46" s="7"/>
       <c r="S46" s="4"/>
     </row>
-    <row r="47" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:19" ht="16.5">
       <c r="A47" s="7"/>
       <c r="B47" s="4"/>
       <c r="C47" s="7"/>
@@ -2112,7 +2135,7 @@
       <c r="R47" s="7"/>
       <c r="S47" s="4"/>
     </row>
-    <row r="48" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:19" ht="16.5">
       <c r="A48" s="7"/>
       <c r="B48" s="4"/>
       <c r="C48" s="7"/>
@@ -2133,7 +2156,7 @@
       <c r="R48" s="7"/>
       <c r="S48" s="4"/>
     </row>
-    <row r="49" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:19" ht="16.5">
       <c r="A49" s="7"/>
       <c r="B49" s="4"/>
       <c r="C49" s="7"/>
@@ -2154,7 +2177,7 @@
       <c r="R49" s="7"/>
       <c r="S49" s="4"/>
     </row>
-    <row r="50" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:19" ht="16.5">
       <c r="A50" s="7"/>
       <c r="B50" s="4"/>
       <c r="C50" s="7"/>
@@ -2175,7 +2198,7 @@
       <c r="R50" s="7"/>
       <c r="S50" s="4"/>
     </row>
-    <row r="51" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:19" ht="16.5">
       <c r="A51" s="7"/>
       <c r="B51" s="4"/>
       <c r="C51" s="7"/>
@@ -2196,7 +2219,7 @@
       <c r="R51" s="7"/>
       <c r="S51" s="4"/>
     </row>
-    <row r="52" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:19" ht="16.5">
       <c r="A52" s="7"/>
       <c r="B52" s="4"/>
       <c r="C52" s="7"/>
@@ -2217,7 +2240,7 @@
       <c r="R52" s="7"/>
       <c r="S52" s="4"/>
     </row>
-    <row r="53" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:19" ht="16.5">
       <c r="A53" s="7"/>
       <c r="B53" s="4"/>
       <c r="C53" s="7"/>
@@ -2238,7 +2261,7 @@
       <c r="R53" s="7"/>
       <c r="S53" s="4"/>
     </row>
-    <row r="54" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:19" ht="16.5">
       <c r="A54" s="7"/>
       <c r="B54" s="4"/>
       <c r="C54" s="7"/>
@@ -2259,7 +2282,7 @@
       <c r="R54" s="7"/>
       <c r="S54" s="4"/>
     </row>
-    <row r="55" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:19" ht="16.5">
       <c r="A55" s="7"/>
       <c r="B55" s="4"/>
       <c r="C55" s="7"/>
@@ -2280,7 +2303,7 @@
       <c r="R55" s="7"/>
       <c r="S55" s="4"/>
     </row>
-    <row r="56" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:19" ht="16.5">
       <c r="A56" s="7"/>
       <c r="B56" s="4"/>
       <c r="C56" s="7"/>
@@ -2301,7 +2324,7 @@
       <c r="R56" s="7"/>
       <c r="S56" s="4"/>
     </row>
-    <row r="57" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:19" ht="16.5">
       <c r="A57" s="7"/>
       <c r="B57" s="4"/>
       <c r="C57" s="7"/>
@@ -2322,7 +2345,7 @@
       <c r="R57" s="7"/>
       <c r="S57" s="4"/>
     </row>
-    <row r="58" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:19" ht="16.5">
       <c r="A58" s="7"/>
       <c r="B58" s="4"/>
       <c r="C58" s="7"/>
@@ -2343,7 +2366,7 @@
       <c r="R58" s="7"/>
       <c r="S58" s="4"/>
     </row>
-    <row r="59" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:19" ht="16.5">
       <c r="A59" s="7"/>
       <c r="B59" s="4"/>
       <c r="C59" s="7"/>
@@ -2364,7 +2387,7 @@
       <c r="R59" s="7"/>
       <c r="S59" s="4"/>
     </row>
-    <row r="60" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:19" ht="16.5">
       <c r="A60" s="7"/>
       <c r="B60" s="4"/>
       <c r="C60" s="7"/>
@@ -2385,7 +2408,7 @@
       <c r="R60" s="7"/>
       <c r="S60" s="4"/>
     </row>
-    <row r="61" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:19" ht="16.5">
       <c r="A61" s="7"/>
       <c r="B61" s="4"/>
       <c r="C61" s="7"/>
@@ -2406,7 +2429,7 @@
       <c r="R61" s="7"/>
       <c r="S61" s="4"/>
     </row>
-    <row r="62" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:19" ht="16.5">
       <c r="A62" s="7"/>
       <c r="B62" s="4"/>
       <c r="C62" s="7"/>
@@ -2427,7 +2450,7 @@
       <c r="R62" s="7"/>
       <c r="S62" s="4"/>
     </row>
-    <row r="63" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:19" ht="16.5">
       <c r="A63" s="7"/>
       <c r="B63" s="4"/>
       <c r="C63" s="7"/>
@@ -2448,7 +2471,7 @@
       <c r="R63" s="7"/>
       <c r="S63" s="4"/>
     </row>
-    <row r="64" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:19" ht="16.5">
       <c r="A64" s="7"/>
       <c r="B64" s="4"/>
       <c r="C64" s="7"/>
@@ -2469,7 +2492,7 @@
       <c r="R64" s="7"/>
       <c r="S64" s="4"/>
     </row>
-    <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:19" ht="16.5">
       <c r="A65" s="7"/>
       <c r="B65" s="4"/>
       <c r="C65" s="7"/>
@@ -2490,7 +2513,7 @@
       <c r="R65" s="7"/>
       <c r="S65" s="4"/>
     </row>
-    <row r="66" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:19" ht="16.5">
       <c r="A66" s="7"/>
       <c r="B66" s="4"/>
       <c r="C66" s="7"/>
@@ -2511,7 +2534,7 @@
       <c r="R66" s="7"/>
       <c r="S66" s="4"/>
     </row>
-    <row r="67" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:19" ht="16.5">
       <c r="A67" s="7"/>
       <c r="B67" s="4"/>
       <c r="C67" s="7"/>
@@ -2532,7 +2555,7 @@
       <c r="R67" s="7"/>
       <c r="S67" s="4"/>
     </row>
-    <row r="68" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:19" ht="16.5">
       <c r="A68" s="7"/>
       <c r="B68" s="4"/>
       <c r="C68" s="7"/>
@@ -2553,7 +2576,7 @@
       <c r="R68" s="7"/>
       <c r="S68" s="4"/>
     </row>
-    <row r="69" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:19" ht="16.5">
       <c r="A69" s="7"/>
       <c r="B69" s="4"/>
       <c r="C69" s="7"/>
@@ -2574,7 +2597,7 @@
       <c r="R69" s="7"/>
       <c r="S69" s="4"/>
     </row>
-    <row r="70" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:19" ht="16.5">
       <c r="A70" s="7"/>
       <c r="B70" s="4"/>
       <c r="C70" s="7"/>
@@ -2595,7 +2618,7 @@
       <c r="R70" s="7"/>
       <c r="S70" s="4"/>
     </row>
-    <row r="71" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:19" ht="16.5">
       <c r="A71" s="7"/>
       <c r="B71" s="4"/>
       <c r="C71" s="7"/>
@@ -2616,7 +2639,7 @@
       <c r="R71" s="7"/>
       <c r="S71" s="4"/>
     </row>
-    <row r="72" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:19" ht="16.5">
       <c r="A72" s="7"/>
       <c r="B72" s="4"/>
       <c r="C72" s="7"/>
@@ -2637,7 +2660,7 @@
       <c r="R72" s="7"/>
       <c r="S72" s="4"/>
     </row>
-    <row r="73" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:19" ht="16.5">
       <c r="A73" s="7"/>
       <c r="B73" s="4"/>
       <c r="C73" s="7"/>
@@ -2658,7 +2681,7 @@
       <c r="R73" s="7"/>
       <c r="S73" s="4"/>
     </row>
-    <row r="74" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:19" ht="16.5">
       <c r="A74" s="7"/>
       <c r="B74" s="4"/>
       <c r="C74" s="7"/>
@@ -2679,7 +2702,7 @@
       <c r="R74" s="7"/>
       <c r="S74" s="4"/>
     </row>
-    <row r="75" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:19" ht="16.5">
       <c r="A75" s="7"/>
       <c r="B75" s="4"/>
       <c r="C75" s="7"/>
@@ -2700,7 +2723,7 @@
       <c r="R75" s="7"/>
       <c r="S75" s="4"/>
     </row>
-    <row r="76" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:19" ht="16.5">
       <c r="A76" s="7"/>
       <c r="B76" s="4"/>
       <c r="C76" s="7"/>
@@ -2721,7 +2744,7 @@
       <c r="R76" s="7"/>
       <c r="S76" s="4"/>
     </row>
-    <row r="77" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:19" ht="16.5">
       <c r="A77" s="7"/>
       <c r="B77" s="4"/>
       <c r="C77" s="7"/>
@@ -2742,7 +2765,7 @@
       <c r="R77" s="7"/>
       <c r="S77" s="4"/>
     </row>
-    <row r="78" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:19" ht="16.5">
       <c r="A78" s="7"/>
       <c r="B78" s="4"/>
       <c r="C78" s="7"/>
@@ -2763,7 +2786,7 @@
       <c r="R78" s="7"/>
       <c r="S78" s="4"/>
     </row>
-    <row r="79" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:19" ht="16.5">
       <c r="A79" s="7"/>
       <c r="B79" s="4"/>
       <c r="C79" s="7"/>
@@ -2784,7 +2807,7 @@
       <c r="R79" s="7"/>
       <c r="S79" s="4"/>
     </row>
-    <row r="80" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:19" ht="16.5">
       <c r="A80" s="7"/>
       <c r="B80" s="4"/>
       <c r="C80" s="7"/>
@@ -2805,7 +2828,7 @@
       <c r="R80" s="7"/>
       <c r="S80" s="4"/>
     </row>
-    <row r="81" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:19" ht="16.5">
       <c r="A81" s="7"/>
       <c r="B81" s="4"/>
       <c r="C81" s="7"/>
@@ -2826,7 +2849,7 @@
       <c r="R81" s="7"/>
       <c r="S81" s="4"/>
     </row>
-    <row r="82" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:19" ht="16.5">
       <c r="A82" s="7"/>
       <c r="B82" s="4"/>
       <c r="C82" s="7"/>
@@ -2847,7 +2870,7 @@
       <c r="R82" s="7"/>
       <c r="S82" s="4"/>
     </row>
-    <row r="83" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:19" ht="16.5">
       <c r="A83" s="7"/>
       <c r="B83" s="4"/>
       <c r="C83" s="7"/>
@@ -2868,7 +2891,7 @@
       <c r="R83" s="7"/>
       <c r="S83" s="4"/>
     </row>
-    <row r="84" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:19" ht="16.5">
       <c r="A84" s="7"/>
       <c r="B84" s="4"/>
       <c r="C84" s="7"/>
@@ -2889,7 +2912,7 @@
       <c r="R84" s="7"/>
       <c r="S84" s="4"/>
     </row>
-    <row r="85" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:19" ht="16.5">
       <c r="A85" s="7"/>
       <c r="B85" s="4"/>
       <c r="C85" s="7"/>
@@ -2910,7 +2933,7 @@
       <c r="R85" s="7"/>
       <c r="S85" s="4"/>
     </row>
-    <row r="86" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:19" ht="16.5">
       <c r="A86" s="7"/>
       <c r="B86" s="4"/>
       <c r="C86" s="7"/>
@@ -2931,7 +2954,7 @@
       <c r="R86" s="7"/>
       <c r="S86" s="4"/>
     </row>
-    <row r="87" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:19" ht="16.5">
       <c r="A87" s="7"/>
       <c r="B87" s="4"/>
       <c r="C87" s="7"/>
@@ -2952,7 +2975,7 @@
       <c r="R87" s="7"/>
       <c r="S87" s="4"/>
     </row>
-    <row r="88" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:19" ht="16.5">
       <c r="A88" s="7"/>
       <c r="B88" s="4"/>
       <c r="C88" s="7"/>
@@ -2973,7 +2996,7 @@
       <c r="R88" s="7"/>
       <c r="S88" s="4"/>
     </row>
-    <row r="89" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:19" ht="16.5">
       <c r="A89" s="7"/>
       <c r="B89" s="4"/>
       <c r="C89" s="7"/>
@@ -2994,7 +3017,7 @@
       <c r="R89" s="7"/>
       <c r="S89" s="4"/>
     </row>
-    <row r="90" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:19" ht="16.5">
       <c r="A90" s="7"/>
       <c r="B90" s="4"/>
       <c r="C90" s="7"/>
@@ -3015,7 +3038,7 @@
       <c r="R90" s="7"/>
       <c r="S90" s="4"/>
     </row>
-    <row r="91" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:19" ht="16.5">
       <c r="A91" s="7"/>
       <c r="B91" s="4"/>
       <c r="C91" s="7"/>
@@ -3036,7 +3059,7 @@
       <c r="R91" s="7"/>
       <c r="S91" s="4"/>
     </row>
-    <row r="92" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:19" ht="16.5">
       <c r="A92" s="7"/>
       <c r="B92" s="4"/>
       <c r="C92" s="7"/>
@@ -3057,7 +3080,7 @@
       <c r="R92" s="7"/>
       <c r="S92" s="4"/>
     </row>
-    <row r="93" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:19" ht="16.5">
       <c r="A93" s="7"/>
       <c r="B93" s="4"/>
       <c r="C93" s="7"/>
@@ -3078,7 +3101,7 @@
       <c r="R93" s="7"/>
       <c r="S93" s="4"/>
     </row>
-    <row r="94" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:19" ht="16.5">
       <c r="A94" s="7"/>
       <c r="B94" s="4"/>
       <c r="C94" s="7"/>
@@ -3099,7 +3122,7 @@
       <c r="R94" s="7"/>
       <c r="S94" s="4"/>
     </row>
-    <row r="95" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:19" ht="16.5">
       <c r="A95" s="7"/>
       <c r="B95" s="4"/>
       <c r="C95" s="7"/>
@@ -3120,7 +3143,7 @@
       <c r="R95" s="7"/>
       <c r="S95" s="4"/>
     </row>
-    <row r="96" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:19" ht="16.5">
       <c r="A96" s="7"/>
       <c r="B96" s="4"/>
       <c r="C96" s="7"/>
@@ -3141,7 +3164,7 @@
       <c r="R96" s="7"/>
       <c r="S96" s="4"/>
     </row>
-    <row r="97" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:19" ht="16.5">
       <c r="A97" s="7"/>
       <c r="B97" s="4"/>
       <c r="C97" s="7"/>
@@ -3162,7 +3185,7 @@
       <c r="R97" s="7"/>
       <c r="S97" s="4"/>
     </row>
-    <row r="98" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:19" ht="16.5">
       <c r="A98" s="7"/>
       <c r="B98" s="4"/>
       <c r="C98" s="7"/>
@@ -3183,7 +3206,7 @@
       <c r="R98" s="7"/>
       <c r="S98" s="4"/>
     </row>
-    <row r="99" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:19" ht="16.5">
       <c r="A99" s="7"/>
       <c r="B99" s="4"/>
       <c r="C99" s="7"/>
@@ -3204,7 +3227,7 @@
       <c r="R99" s="7"/>
       <c r="S99" s="4"/>
     </row>
-    <row r="100" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:19" ht="16.5">
       <c r="A100" s="7"/>
       <c r="B100" s="4"/>
       <c r="C100" s="7"/>
@@ -3225,7 +3248,7 @@
       <c r="R100" s="7"/>
       <c r="S100" s="4"/>
     </row>
-    <row r="101" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:19" ht="16.5">
       <c r="A101" s="7"/>
       <c r="B101" s="4"/>
       <c r="C101" s="7"/>
@@ -3246,7 +3269,7 @@
       <c r="R101" s="7"/>
       <c r="S101" s="4"/>
     </row>
-    <row r="102" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:19" ht="16.5">
       <c r="A102" s="7"/>
       <c r="B102" s="4"/>
       <c r="C102" s="7"/>
@@ -3267,7 +3290,7 @@
       <c r="R102" s="7"/>
       <c r="S102" s="4"/>
     </row>
-    <row r="103" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:19" ht="16.5">
       <c r="A103" s="7"/>
       <c r="B103" s="4"/>
       <c r="C103" s="7"/>
@@ -3288,7 +3311,7 @@
       <c r="R103" s="7"/>
       <c r="S103" s="4"/>
     </row>
-    <row r="104" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:19" ht="16.5">
       <c r="A104" s="7"/>
       <c r="B104" s="4"/>
       <c r="C104" s="7"/>
@@ -3309,7 +3332,7 @@
       <c r="R104" s="7"/>
       <c r="S104" s="4"/>
     </row>
-    <row r="105" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:19" ht="16.5">
       <c r="A105" s="7"/>
       <c r="B105" s="4"/>
       <c r="C105" s="7"/>
@@ -3330,7 +3353,7 @@
       <c r="R105" s="7"/>
       <c r="S105" s="4"/>
     </row>
-    <row r="106" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:19" ht="16.5">
       <c r="A106" s="7"/>
       <c r="B106" s="4"/>
       <c r="C106" s="7"/>
@@ -3351,7 +3374,7 @@
       <c r="R106" s="7"/>
       <c r="S106" s="4"/>
     </row>
-    <row r="107" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:19" ht="16.5">
       <c r="A107" s="7"/>
       <c r="B107" s="4"/>
       <c r="C107" s="7"/>
@@ -3372,7 +3395,7 @@
       <c r="R107" s="7"/>
       <c r="S107" s="4"/>
     </row>
-    <row r="108" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:19" ht="16.5">
       <c r="A108" s="7"/>
       <c r="B108" s="4"/>
       <c r="C108" s="7"/>
@@ -3393,7 +3416,7 @@
       <c r="R108" s="7"/>
       <c r="S108" s="4"/>
     </row>
-    <row r="109" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:19" ht="16.5">
       <c r="A109" s="7"/>
       <c r="B109" s="4"/>
       <c r="C109" s="7"/>
@@ -3411,7 +3434,7 @@
       <c r="O109" s="4"/>
       <c r="S109" s="4"/>
     </row>
-    <row r="110" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:19" ht="16.5">
       <c r="A110" s="7"/>
       <c r="B110" s="4"/>
       <c r="C110" s="7"/>
@@ -3429,7 +3452,7 @@
       <c r="O110" s="4"/>
       <c r="S110" s="4"/>
     </row>
-    <row r="111" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:19" ht="16.5">
       <c r="A111" s="7"/>
       <c r="B111" s="4"/>
       <c r="C111" s="7"/>
@@ -3447,7 +3470,7 @@
       <c r="O111" s="4"/>
       <c r="S111" s="4"/>
     </row>
-    <row r="112" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:19" ht="16.5">
       <c r="A112" s="7"/>
       <c r="B112" s="4"/>
       <c r="C112" s="7"/>
@@ -3465,7 +3488,7 @@
       <c r="O112" s="4"/>
       <c r="S112" s="4"/>
     </row>
-    <row r="113" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:19" ht="16.5">
       <c r="A113" s="7"/>
       <c r="B113" s="4"/>
       <c r="C113" s="7"/>
@@ -3483,7 +3506,7 @@
       <c r="O113" s="4"/>
       <c r="S113" s="4"/>
     </row>
-    <row r="114" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:19" ht="16.5">
       <c r="A114" s="7"/>
       <c r="B114" s="4"/>
       <c r="C114" s="7"/>
@@ -3501,7 +3524,7 @@
       <c r="O114" s="4"/>
       <c r="S114" s="4"/>
     </row>
-    <row r="115" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:19" ht="16.5">
       <c r="A115" s="7"/>
       <c r="B115" s="4"/>
       <c r="C115" s="7"/>
@@ -3519,7 +3542,7 @@
       <c r="O115" s="4"/>
       <c r="S115" s="4"/>
     </row>
-    <row r="116" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:19" ht="16.5">
       <c r="A116" s="7"/>
       <c r="B116" s="4"/>
       <c r="C116" s="7"/>
@@ -3537,7 +3560,7 @@
       <c r="O116" s="4"/>
       <c r="S116" s="4"/>
     </row>
-    <row r="117" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:19" ht="16.5">
       <c r="A117" s="7"/>
       <c r="B117" s="4"/>
       <c r="C117" s="7"/>
@@ -3555,7 +3578,7 @@
       <c r="O117" s="4"/>
       <c r="S117" s="4"/>
     </row>
-    <row r="118" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:19" ht="16.5">
       <c r="A118" s="7"/>
       <c r="B118" s="4"/>
       <c r="C118" s="7"/>
@@ -3573,7 +3596,7 @@
       <c r="O118" s="4"/>
       <c r="S118" s="4"/>
     </row>
-    <row r="119" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:19" ht="16.5">
       <c r="A119" s="7"/>
       <c r="B119" s="4"/>
       <c r="C119" s="7"/>
@@ -3591,7 +3614,7 @@
       <c r="O119" s="4"/>
       <c r="S119" s="4"/>
     </row>
-    <row r="120" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:19" ht="16.5">
       <c r="A120" s="7"/>
       <c r="B120" s="4"/>
       <c r="C120" s="7"/>
@@ -3609,7 +3632,7 @@
       <c r="O120" s="4"/>
       <c r="S120" s="4"/>
     </row>
-    <row r="121" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:19" ht="16.5">
       <c r="A121" s="7"/>
       <c r="B121" s="4"/>
       <c r="C121" s="7"/>
@@ -3627,7 +3650,7 @@
       <c r="O121" s="4"/>
       <c r="S121" s="4"/>
     </row>
-    <row r="122" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:19" ht="16.5">
       <c r="A122" s="7"/>
       <c r="B122" s="4"/>
       <c r="C122" s="7"/>
@@ -3645,7 +3668,7 @@
       <c r="O122" s="4"/>
       <c r="S122" s="4"/>
     </row>
-    <row r="123" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:19" ht="16.5">
       <c r="A123" s="7"/>
       <c r="B123" s="4"/>
       <c r="C123" s="7"/>
@@ -3663,7 +3686,7 @@
       <c r="O123" s="4"/>
       <c r="S123" s="4"/>
     </row>
-    <row r="124" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:19" ht="16.5">
       <c r="A124" s="7"/>
       <c r="B124" s="4"/>
       <c r="C124" s="7"/>
@@ -3681,7 +3704,7 @@
       <c r="O124" s="4"/>
       <c r="S124" s="4"/>
     </row>
-    <row r="125" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:19" ht="16.5">
       <c r="A125" s="7"/>
       <c r="B125" s="4"/>
       <c r="C125" s="7"/>
@@ -3699,7 +3722,7 @@
       <c r="O125" s="4"/>
       <c r="S125" s="4"/>
     </row>
-    <row r="126" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:19" ht="16.5">
       <c r="A126" s="7"/>
       <c r="B126" s="4"/>
       <c r="C126" s="7"/>
@@ -3717,7 +3740,7 @@
       <c r="O126" s="4"/>
       <c r="S126" s="4"/>
     </row>
-    <row r="127" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:19" ht="16.5">
       <c r="A127" s="7"/>
       <c r="B127" s="4"/>
       <c r="C127" s="7"/>
@@ -3735,7 +3758,7 @@
       <c r="O127" s="4"/>
       <c r="S127" s="4"/>
     </row>
-    <row r="128" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:19" ht="16.5">
       <c r="A128" s="7"/>
       <c r="B128" s="4"/>
       <c r="C128" s="7"/>
@@ -3753,7 +3776,7 @@
       <c r="O128" s="4"/>
       <c r="S128" s="4"/>
     </row>
-    <row r="129" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:19" ht="16.5">
       <c r="A129" s="7"/>
       <c r="B129" s="4"/>
       <c r="C129" s="7"/>
@@ -3771,7 +3794,7 @@
       <c r="O129" s="4"/>
       <c r="S129" s="4"/>
     </row>
-    <row r="130" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:19" ht="16.5">
       <c r="A130" s="7"/>
       <c r="B130" s="4"/>
       <c r="C130" s="7"/>
@@ -3789,7 +3812,7 @@
       <c r="O130" s="4"/>
       <c r="S130" s="4"/>
     </row>
-    <row r="131" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:19" ht="16.5">
       <c r="A131" s="7"/>
       <c r="B131" s="4"/>
       <c r="C131" s="7"/>
@@ -3807,7 +3830,7 @@
       <c r="O131" s="4"/>
       <c r="S131" s="4"/>
     </row>
-    <row r="132" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:19" ht="16.5">
       <c r="A132" s="7"/>
       <c r="B132" s="4"/>
       <c r="C132" s="7"/>
@@ -3825,7 +3848,7 @@
       <c r="O132" s="4"/>
       <c r="S132" s="4"/>
     </row>
-    <row r="133" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:19" ht="16.5">
       <c r="A133" s="7"/>
       <c r="B133" s="4"/>
       <c r="C133" s="7"/>
@@ -3843,7 +3866,7 @@
       <c r="O133" s="4"/>
       <c r="S133" s="4"/>
     </row>
-    <row r="134" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:19" ht="16.5">
       <c r="A134" s="7"/>
       <c r="B134" s="4"/>
       <c r="C134" s="7"/>
@@ -3861,7 +3884,7 @@
       <c r="O134" s="4"/>
       <c r="S134" s="4"/>
     </row>
-    <row r="135" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:19" ht="16.5">
       <c r="A135" s="7"/>
       <c r="B135" s="4"/>
       <c r="C135" s="7"/>
@@ -3879,7 +3902,7 @@
       <c r="O135" s="4"/>
       <c r="S135" s="4"/>
     </row>
-    <row r="136" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:19" ht="16.5">
       <c r="A136" s="7"/>
       <c r="B136" s="4"/>
       <c r="C136" s="7"/>
@@ -3897,7 +3920,7 @@
       <c r="O136" s="4"/>
       <c r="S136" s="4"/>
     </row>
-    <row r="137" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:19" ht="16.5">
       <c r="A137" s="7"/>
       <c r="B137" s="4"/>
       <c r="C137" s="7"/>
@@ -3915,7 +3938,7 @@
       <c r="O137" s="4"/>
       <c r="S137" s="4"/>
     </row>
-    <row r="138" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:19" ht="16.5">
       <c r="A138" s="7"/>
       <c r="B138" s="4"/>
       <c r="C138" s="7"/>
@@ -3933,7 +3956,7 @@
       <c r="O138" s="4"/>
       <c r="S138" s="4"/>
     </row>
-    <row r="139" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:19" ht="16.5">
       <c r="A139" s="7"/>
       <c r="B139" s="4"/>
       <c r="C139" s="7"/>
@@ -3951,7 +3974,7 @@
       <c r="O139" s="4"/>
       <c r="S139" s="4"/>
     </row>
-    <row r="140" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:19" ht="16.5">
       <c r="A140" s="7"/>
       <c r="B140" s="4"/>
       <c r="C140" s="7"/>
@@ -3969,7 +3992,7 @@
       <c r="O140" s="4"/>
       <c r="S140" s="4"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:19">
       <c r="A141" s="7"/>
       <c r="B141" s="4"/>
       <c r="C141" s="7"/>
@@ -3987,7 +4010,7 @@
       <c r="O141" s="4"/>
       <c r="S141" s="4"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:19">
       <c r="A142" s="7"/>
       <c r="B142" s="4"/>
       <c r="C142" s="7"/>
@@ -4005,7 +4028,7 @@
       <c r="O142" s="4"/>
       <c r="S142" s="4"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:19">
       <c r="A143" s="7"/>
       <c r="B143" s="4"/>
       <c r="C143" s="7"/>
@@ -4031,21 +4054,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="30.5" customWidth="1"/>
     <col min="7" max="7" width="22.75" customWidth="1"/>
     <col min="8" max="8" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="41" t="s">
         <v>27</v>
       </c>
@@ -4058,7 +4081,7 @@
       <c r="H1" s="41"/>
       <c r="I1" s="42"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="43"/>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
@@ -4069,7 +4092,7 @@
       <c r="H2" s="43"/>
       <c r="I2" s="44"/>
     </row>
-    <row r="3" spans="1:9" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" s="26" customFormat="1" ht="16.5">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
@@ -4098,7 +4121,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="19"/>
       <c r="B4" s="27" t="s">
         <v>36</v>
@@ -4113,7 +4136,7 @@
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -4124,7 +4147,7 @@
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -4135,7 +4158,7 @@
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -4146,7 +4169,7 @@
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -4157,7 +4180,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -4168,7 +4191,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -4179,7 +4202,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -4190,7 +4213,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -4201,7 +4224,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -4212,7 +4235,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -4241,14 +4264,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -4259,7 +4282,7 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="18" t="s">
         <v>18</v>
       </c>
@@ -4285,7 +4308,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="2" customFormat="1">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -4295,7 +4318,7 @@
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -4305,7 +4328,7 @@
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -4315,7 +4338,7 @@
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -4325,7 +4348,7 @@
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -4335,7 +4358,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -4345,7 +4368,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -4355,7 +4378,7 @@
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -4365,7 +4388,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -4375,7 +4398,7 @@
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -4385,7 +4408,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -4395,7 +4418,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -4405,7 +4428,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -4415,7 +4438,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -4425,7 +4448,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -4435,7 +4458,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -4445,7 +4468,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -4455,7 +4478,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -4477,14 +4500,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="33" customWidth="1"/>
@@ -5320,7 +5343,7 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="41" t="s">
         <v>38</v>
       </c>
@@ -5337,7 +5360,7 @@
       <c r="L1" s="41"/>
       <c r="M1" s="42"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="43"/>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
@@ -5352,7 +5375,7 @@
       <c r="L2" s="43"/>
       <c r="M2" s="44"/>
     </row>
-    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
@@ -5393,7 +5416,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A4" s="29"/>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
@@ -5408,7 +5431,7 @@
       <c r="L4" s="29"/>
       <c r="M4" s="31"/>
     </row>
-    <row r="5" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A5" s="29"/>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
@@ -5423,7 +5446,7 @@
       <c r="L5" s="29"/>
       <c r="M5" s="31"/>
     </row>
-    <row r="6" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A6" s="29"/>
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
@@ -5438,7 +5461,7 @@
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
     </row>
-    <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
@@ -5453,7 +5476,7 @@
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
     </row>
-    <row r="8" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
@@ -5468,7 +5491,7 @@
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
     </row>
-    <row r="9" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A9" s="29"/>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
@@ -5483,7 +5506,7 @@
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
     </row>
-    <row r="10" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A10" s="29"/>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -5498,7 +5521,7 @@
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
     </row>
-    <row r="11" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
@@ -5513,7 +5536,7 @@
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
     </row>
-    <row r="12" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
@@ -5547,14 +5570,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="E4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="33" customWidth="1"/>
@@ -6390,7 +6413,7 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="41" t="s">
         <v>38</v>
       </c>
@@ -6407,7 +6430,7 @@
       <c r="L1" s="41"/>
       <c r="M1" s="42"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="43"/>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
@@ -6422,7 +6445,7 @@
       <c r="L2" s="43"/>
       <c r="M2" s="44"/>
     </row>
-    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
@@ -6463,7 +6486,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A4" s="29"/>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
@@ -6478,7 +6501,7 @@
       <c r="L4" s="29"/>
       <c r="M4" s="31"/>
     </row>
-    <row r="5" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A5" s="29"/>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
@@ -6493,7 +6516,7 @@
       <c r="L5" s="29"/>
       <c r="M5" s="31"/>
     </row>
-    <row r="6" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A6" s="29"/>
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
@@ -6508,7 +6531,7 @@
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
     </row>
-    <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
@@ -6523,7 +6546,7 @@
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
     </row>
-    <row r="8" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
@@ -6538,7 +6561,7 @@
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
     </row>
-    <row r="9" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A9" s="29"/>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
@@ -6553,7 +6576,7 @@
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
     </row>
-    <row r="10" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A10" s="29"/>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -6568,7 +6591,7 @@
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
     </row>
-    <row r="11" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
@@ -6583,7 +6606,7 @@
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
     </row>
-    <row r="12" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
@@ -6616,14 +6639,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="33" customWidth="1"/>
@@ -7459,7 +7482,7 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="41" t="s">
         <v>38</v>
       </c>
@@ -7476,7 +7499,7 @@
       <c r="L1" s="41"/>
       <c r="M1" s="42"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="43"/>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
@@ -7491,7 +7514,7 @@
       <c r="L2" s="43"/>
       <c r="M2" s="44"/>
     </row>
-    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
@@ -7532,7 +7555,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A4" s="29"/>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
@@ -7547,7 +7570,7 @@
       <c r="L4" s="29"/>
       <c r="M4" s="31"/>
     </row>
-    <row r="5" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A5" s="29"/>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
@@ -7562,7 +7585,7 @@
       <c r="L5" s="29"/>
       <c r="M5" s="31"/>
     </row>
-    <row r="6" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A6" s="29"/>
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
@@ -7577,7 +7600,7 @@
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
     </row>
-    <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
@@ -7592,7 +7615,7 @@
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
     </row>
-    <row r="8" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
@@ -7607,7 +7630,7 @@
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
     </row>
-    <row r="9" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A9" s="29"/>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
@@ -7622,7 +7645,7 @@
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
     </row>
-    <row r="10" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A10" s="29"/>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -7637,7 +7660,7 @@
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
     </row>
-    <row r="11" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
@@ -7652,7 +7675,7 @@
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
     </row>
-    <row r="12" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" s="26" customFormat="1" ht="16.5">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
